--- a/HansoInputTool/data/Input.xlsx
+++ b/HansoInputTool/data/Input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excel\搬送アプリ\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ligdoor\source\repos\HansoInputTool\HansoInputTool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EA61C7-BD07-4A23-A5AB-E2FDFC6A34DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8113E0AF-F86C-4C9E-AF00-D611AA105C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="892" xr2:uid="{88C334D1-54A2-4A07-AD58-9761E3E044DD}"/>
   </bookViews>
@@ -3919,6 +3919,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4592,7 +4597,7 @@
     <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="8" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="2" customWidth="1"/>
+    <col min="10" max="10" width="2.625" customWidth="1"/>
     <col min="11" max="11" width="10.625" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -6203,11 +6208,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3B5792-D889-4338-B359-8E3FA4F7B2AE}">
-  <sheetPr codeName="Sheet10"/>
+  <sheetPr codeName="Sheet10">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -6377,11 +6384,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C42A2FE-8507-4D01-8114-B31C8D4482CF}">
-  <sheetPr codeName="Sheet11"/>
+  <sheetPr codeName="Sheet11">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -6551,11 +6560,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C68365-60FE-48EF-88FB-1D0A9CA40172}">
-  <sheetPr codeName="Sheet12"/>
+  <sheetPr codeName="Sheet12">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -6731,7 +6742,7 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8366,7 +8377,7 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10007,7 +10018,7 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11642,7 +11653,7 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13277,7 +13288,7 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14912,7 +14923,7 @@
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16541,11 +16552,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A7F5A7-5400-4855-9E32-D7D31C8B4E54}">
-  <sheetPr codeName="Sheet13"/>
+  <sheetPr codeName="Sheet13">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -16715,11 +16728,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C177C353-2A9C-44E4-9043-4FBE365E8C0B}">
-  <sheetPr codeName="Sheet9"/>
+  <sheetPr codeName="Sheet9">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
